--- a/Reference/Reference_Sheet.xlsx
+++ b/Reference/Reference_Sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arduino\homeAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\iCloudDrive\Files\Projects\RGB-Bulb-Controller\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C1DE1-BB03-45EA-BD57-4D98E2B9DF27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9225FDE2-F519-431B-A12E-F4069A2AC5E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" activeTab="2" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" activeTab="1" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Initial-Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="RGB-Bulb" sheetId="2" r:id="rId2"/>
+    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179016"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
   <si>
     <t>Red</t>
   </si>
@@ -783,6 +783,15 @@
   </si>
   <si>
     <t>Mute</t>
+  </si>
+  <si>
+    <t>Serial.println</t>
+  </si>
+  <si>
+    <t>N/A  (25)</t>
+  </si>
+  <si>
+    <t>N/A (-25)</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1120,22 +1129,40 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1159,49 +1186,22 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1213,13 +1213,25 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1553,47 +1565,47 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:H27"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="F1" s="64" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="F1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1605,22 +1617,22 @@
       <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="65">
         <v>65</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="68" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="68">
         <v>78</v>
       </c>
     </row>
@@ -1634,16 +1646,16 @@
       <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="62"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1655,22 +1667,22 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="66" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="66">
         <v>66</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="63" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="63">
         <v>79</v>
       </c>
     </row>
@@ -1684,16 +1696,16 @@
       <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1705,22 +1717,22 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="64" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="64">
         <v>67</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="60">
         <v>80</v>
       </c>
     </row>
@@ -1734,16 +1746,16 @@
       <c r="C9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="58"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1755,22 +1767,22 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="61" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="61">
         <v>68</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="62" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="62">
         <v>81</v>
       </c>
     </row>
@@ -1784,16 +1796,16 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="69"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1805,22 +1817,22 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="79" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="79">
         <v>69</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="60" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="60">
         <v>82</v>
       </c>
     </row>
@@ -1834,16 +1846,16 @@
       <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="58"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1855,22 +1867,22 @@
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="67" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="67">
         <v>70</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="62" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="62">
         <v>83</v>
       </c>
     </row>
@@ -1884,16 +1896,16 @@
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="69"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1905,22 +1917,22 @@
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="77" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="77">
         <v>71</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="60" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="60">
         <v>84</v>
       </c>
     </row>
@@ -1934,616 +1946,619 @@
       <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="78" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="78">
         <v>72</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="62" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="62">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="61"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="69"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="74" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="74">
         <v>73</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="60" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="60">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="68"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="58"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="76" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="76">
         <v>74</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="62" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="48">
         <v>25</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="62">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="F23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="69"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="69"/>
+      <c r="K23" s="62"/>
       <c r="L23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="F24" s="66" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="F24" s="72" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="72">
         <v>75</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="60" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="51">
         <v>50</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="60">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="F25" s="66"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="58"/>
+      <c r="K25" s="60"/>
       <c r="L25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76">
+      <c r="A26" s="59">
         <v>0</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="59">
         <v>48</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="73" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="73">
         <v>76</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="63" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="49">
         <v>75</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="71">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="F27" s="67"/>
+      <c r="C27" s="59"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="57"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="71"/>
+      <c r="L27" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76">
+      <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="59">
         <v>49</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="63" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="63">
         <v>77</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="68" t="s">
         <v>70</v>
       </c>
       <c r="J28" s="50">
         <v>100</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="69">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="59"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="63"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76">
+      <c r="A30" s="59">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="59">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="59"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76">
+      <c r="A32" s="59">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="59">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76">
+      <c r="A34" s="59">
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="59">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76">
+      <c r="A36" s="59">
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="59">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="59"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="76">
+      <c r="A38" s="59">
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="59">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="59"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="76">
+      <c r="A40" s="59">
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="59">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="59"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="76">
+      <c r="A42" s="59">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="59">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="76">
+      <c r="A44" s="59">
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="59">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="76"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="59"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="59">
         <v>45</v>
       </c>
       <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="59" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="59">
         <v>61</v>
       </c>
       <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="59" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="59">
         <v>81</v>
       </c>
       <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="59">
         <v>87</v>
       </c>
       <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="59">
         <v>69</v>
       </c>
       <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="59" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="59">
         <v>82</v>
       </c>
       <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="76" t="s">
+      <c r="A58" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="59">
         <v>84</v>
       </c>
       <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="59">
         <v>89</v>
       </c>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="76"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="59" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="59">
         <v>85</v>
       </c>
       <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="76"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="59">
         <v>73</v>
       </c>
       <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="59" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="76">
+      <c r="C66" s="59">
         <v>79</v>
       </c>
       <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,6 +2610,87 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A23:C25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F1:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
@@ -2611,87 +2707,6 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="F1:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A23:C25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2700,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
-  <dimension ref="B4:N40"/>
+  <dimension ref="B4:N58"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,732 +2770,996 @@
       <c r="N6" s="80"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="83" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="83" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="85">
         <v>0</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="65" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="65">
         <v>0</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="65">
         <v>0</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="J10" s="72"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="81" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="84">
         <v>1</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="66" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="66">
         <v>0</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="66">
         <v>1</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="J12" s="73"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="82" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="85">
         <v>2</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="64" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="64">
         <v>39</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="64">
         <v>1</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="J14" s="74"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="84">
         <v>3</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="61" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="61">
         <v>50</v>
       </c>
-      <c r="M15" s="75">
+      <c r="M15" s="61">
         <v>1</v>
       </c>
-      <c r="N15" s="75">
+      <c r="N15" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="J16" s="75"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="85">
         <v>5</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="79" t="s">
         <v>46</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="79">
         <v>60</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="79">
         <v>1</v>
       </c>
-      <c r="N17" s="70">
+      <c r="N17" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="J18" s="70"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="81" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="84">
         <v>6</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="67" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="67">
         <v>120</v>
       </c>
-      <c r="M19" s="71">
+      <c r="M19" s="67">
         <v>1</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="J20" s="71"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="85">
         <v>7</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="77" t="s">
         <v>58</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="77">
         <v>174</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21" s="77">
         <v>0.71879999999999999</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="77">
         <v>0.87839999999999996</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="J22" s="60"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="81" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="84">
         <v>8</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="78" t="s">
         <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="78">
         <v>180</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="78">
         <v>1</v>
       </c>
-      <c r="N23" s="61">
+      <c r="N23" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="J24" s="61"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82" t="s">
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="85">
         <v>10</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="74" t="s">
         <v>51</v>
       </c>
       <c r="K25" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="68">
+      <c r="L25" s="74">
         <v>240</v>
       </c>
-      <c r="M25" s="68">
+      <c r="M25" s="74">
         <v>1</v>
       </c>
-      <c r="N25" s="68">
+      <c r="N25" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="J26" s="68"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="J26" s="74"/>
       <c r="K26" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="81" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="84">
         <v>11</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="76" t="s">
         <v>60</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="76">
         <v>277</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="76">
         <v>1</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="J28" s="59"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="J28" s="76"/>
       <c r="K28" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="82" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="85">
         <v>12</v>
       </c>
-      <c r="J29" s="66" t="s">
+      <c r="J29" s="72" t="s">
         <v>61</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="72">
         <v>300</v>
       </c>
-      <c r="M29" s="66">
+      <c r="M29" s="72">
         <v>1</v>
       </c>
-      <c r="N29" s="66">
+      <c r="N29" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="J30" s="72"/>
       <c r="K30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="81" t="s">
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="84">
         <v>13</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="73" t="s">
         <v>62</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="67">
+      <c r="L31" s="73">
         <v>348</v>
       </c>
-      <c r="M31" s="67">
+      <c r="M31" s="73">
         <v>0.251</v>
       </c>
-      <c r="N31" s="67">
+      <c r="N31" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="J32" s="67"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="J32" s="73"/>
       <c r="K32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="82" t="s">
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="85">
         <v>15</v>
       </c>
-      <c r="J33" s="84" t="s">
+      <c r="J33" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="84">
+        <v>16</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="85">
+        <v>17</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="84">
+        <v>18</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J41" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="60"/>
+      <c r="K42" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J44" s="62"/>
+      <c r="K44" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="82">
+        <v>255</v>
+      </c>
+      <c r="M45" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="82"/>
+      <c r="K46" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="K47" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="L33" s="84">
+      <c r="L47" s="81">
         <v>348</v>
       </c>
-      <c r="M33" s="84">
+      <c r="M47" s="81">
         <v>0.90869999999999995</v>
       </c>
-      <c r="N33" s="84">
+      <c r="N47" s="81">
         <v>0.85880000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="55" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="81"/>
+      <c r="K48" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="81" t="s">
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="81">
+        <v>274</v>
+      </c>
+      <c r="M49" s="81">
+        <v>1</v>
+      </c>
+      <c r="N49" s="81">
+        <v>0.50980000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="81"/>
+      <c r="K50" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="48">
+        <v>25</v>
+      </c>
+      <c r="L51" s="62">
+        <v>25</v>
+      </c>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="62"/>
+      <c r="K52" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="81">
-        <v>16</v>
-      </c>
-      <c r="J35" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="L35" s="85">
-        <v>255</v>
-      </c>
-      <c r="M35" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="82" t="s">
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J53" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="51">
+        <v>50</v>
+      </c>
+      <c r="L53" s="60">
+        <v>50</v>
+      </c>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J54" s="60"/>
+      <c r="K54" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="82">
-        <v>17</v>
-      </c>
-      <c r="J37" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="84">
-        <v>274</v>
-      </c>
-      <c r="M37" s="84">
-        <v>1</v>
-      </c>
-      <c r="N37" s="84">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="81" t="s">
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J55" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="49">
+        <v>75</v>
+      </c>
+      <c r="L55" s="71">
+        <v>75</v>
+      </c>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J56" s="63"/>
+      <c r="K56" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="81">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J57" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="50">
+        <v>100</v>
+      </c>
+      <c r="L57" s="69">
+        <v>100</v>
+      </c>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J58" s="68"/>
+      <c r="K58" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M31:M32"/>
+  <mergeCells count="138">
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="L43:N44"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J35:J36"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B4:F6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="N15:N16"/>
@@ -3500,70 +3779,42 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B4:F6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3574,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,172 +3835,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="58" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="56" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="56">
         <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="56">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="56" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="56" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="56" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="56" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="56" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="56" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="56" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="56">
         <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="56">
         <v>281</v>
       </c>
     </row>

--- a/Reference/Reference_Sheet.xlsx
+++ b/Reference/Reference_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\iCloudDrive\Files\Projects\RGB-Bulb-Controller\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Desktop\GitHoc\ZZZZZZZZ\RGB-Bulb-Controller\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9225FDE2-F519-431B-A12E-F4069A2AC5E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C9AEB5F-05D7-4D28-B7C0-D6CE24B046D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" activeTab="1" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
   </bookViews>
   <sheets>
-    <sheet name="Initial-Notes" sheetId="1" r:id="rId1"/>
-    <sheet name="RGB-Bulb" sheetId="2" r:id="rId2"/>
-    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId3"/>
+    <sheet name="RGB-Bulb" sheetId="2" r:id="rId1"/>
+    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId2"/>
+    <sheet name="Initial-Notes" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179016"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="164">
   <si>
     <t>Red</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Command</t>
   </si>
   <si>
-    <t>Custom Mode</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -792,6 +789,260 @@
   </si>
   <si>
     <t>N/A (-25)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Living Room</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>0-3, 8</t>
+  </si>
+  <si>
+    <r>
+      <t>0000.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>Master Suite</t>
+  </si>
+  <si>
+    <r>
+      <t>0000.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>All Lights</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Entertainment Center</t>
+  </si>
+  <si>
+    <r>
+      <t>0000.0000.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom Lighting Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>11-12</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1138,40 +1389,34 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1186,22 +1431,49 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1213,26 +1485,11 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,6 +1818,1454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
+  <dimension ref="B4:AI74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="91">
+        <v>0</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="75">
+        <v>0</v>
+      </c>
+      <c r="M9" s="75">
+        <v>0</v>
+      </c>
+      <c r="N9" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="91"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="92">
+        <v>1</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="76">
+        <v>0</v>
+      </c>
+      <c r="M11" s="76">
+        <v>1</v>
+      </c>
+      <c r="N11" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="92"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="91">
+        <v>2</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="74">
+        <v>39</v>
+      </c>
+      <c r="M13" s="74">
+        <v>1</v>
+      </c>
+      <c r="N13" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="91"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="92">
+        <v>3</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="77">
+        <v>50</v>
+      </c>
+      <c r="M15" s="77">
+        <v>1</v>
+      </c>
+      <c r="N15" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="92"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="91">
+        <v>5</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="66">
+        <v>60</v>
+      </c>
+      <c r="M17" s="66">
+        <v>1</v>
+      </c>
+      <c r="N17" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="91"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="92">
+        <v>6</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="79">
+        <v>120</v>
+      </c>
+      <c r="M19" s="79">
+        <v>1</v>
+      </c>
+      <c r="N19" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="92"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="91">
+        <v>7</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="63">
+        <v>174</v>
+      </c>
+      <c r="M21" s="63">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="N21" s="63">
+        <v>0.87839999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="91"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="92">
+        <v>8</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="64">
+        <v>180</v>
+      </c>
+      <c r="M23" s="64">
+        <v>1</v>
+      </c>
+      <c r="N23" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="92"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="91">
+        <v>10</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="72">
+        <v>240</v>
+      </c>
+      <c r="M25" s="72">
+        <v>1</v>
+      </c>
+      <c r="N25" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="91"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="92">
+        <v>11</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="62">
+        <v>277</v>
+      </c>
+      <c r="M27" s="62">
+        <v>1</v>
+      </c>
+      <c r="N27" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="92"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="91">
+        <v>12</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="70">
+        <v>300</v>
+      </c>
+      <c r="M29" s="70">
+        <v>1</v>
+      </c>
+      <c r="N29" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="91"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="92">
+        <v>13</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="71">
+        <v>348</v>
+      </c>
+      <c r="M31" s="71">
+        <v>0.251</v>
+      </c>
+      <c r="N31" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="92"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="91">
+        <v>15</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="91"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B35" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="92">
+        <v>16</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="92"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B37" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="91">
+        <v>17</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="91"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B39" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="92">
+        <v>18</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="92"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B41" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="91"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B43" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="92"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B45" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="89">
+        <v>255</v>
+      </c>
+      <c r="M45" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="89">
+        <v>1</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="91"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B47" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="88">
+        <v>348</v>
+      </c>
+      <c r="M47" s="88">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="N47" s="88">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="92"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="88">
+        <v>274</v>
+      </c>
+      <c r="M49" s="88">
+        <v>1</v>
+      </c>
+      <c r="N49" s="88">
+        <v>0.50980000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="91"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+    </row>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="48">
+        <v>25</v>
+      </c>
+      <c r="L51" s="65">
+        <v>25</v>
+      </c>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+    </row>
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="92"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="51">
+        <v>50</v>
+      </c>
+      <c r="L53" s="61">
+        <v>50</v>
+      </c>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="91"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+    </row>
+    <row r="55" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="49">
+        <v>75</v>
+      </c>
+      <c r="L55" s="69">
+        <v>75</v>
+      </c>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+    </row>
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="60"/>
+      <c r="K56" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+    </row>
+    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="50">
+        <v>100</v>
+      </c>
+      <c r="L57" s="73">
+        <v>100</v>
+      </c>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+    </row>
+    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="68"/>
+      <c r="K58" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+    </row>
+    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="159">
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B4:F6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="L43:N44"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="56">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="56">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="56">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="56">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1FF50-266D-4B4B-8FDC-D8F17AE2F4A9}">
   <dimension ref="A1:L100"/>
   <sheetViews>
@@ -1571,41 +3276,41 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="F1" s="70" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="F1" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1617,13 +3322,13 @@
       <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="75">
         <v>65</v>
       </c>
       <c r="I4" s="68" t="s">
@@ -1646,11 +3351,11 @@
       <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="68"/>
       <c r="J5" s="46" t="s">
         <v>69</v>
@@ -1667,22 +3372,22 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="76" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="76">
         <v>66</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="60" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="60">
         <v>79</v>
       </c>
     </row>
@@ -1696,16 +3401,16 @@
       <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1717,22 +3422,22 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="74" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="74">
         <v>67</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="61" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="61">
         <v>80</v>
       </c>
     </row>
@@ -1746,16 +3451,16 @@
       <c r="C9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1767,22 +3472,22 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="77" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="77">
         <v>68</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="65" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="65">
         <v>81</v>
       </c>
     </row>
@@ -1796,16 +3501,16 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1817,22 +3522,22 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="66" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="66">
         <v>69</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="61" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="61">
         <v>82</v>
       </c>
     </row>
@@ -1846,16 +3551,16 @@
       <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="60"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1867,22 +3572,22 @@
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="79" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="79">
         <v>70</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="65" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="65">
         <v>83</v>
       </c>
     </row>
@@ -1896,16 +3601,16 @@
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="62"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1917,22 +3622,22 @@
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="63" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="63">
         <v>71</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="61" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="61">
         <v>84</v>
       </c>
     </row>
@@ -1946,228 +3651,228 @@
       <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="60"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="64" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="64">
         <v>72</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="65" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="65">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="78"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="72" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="72">
         <v>73</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="61" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="61">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="74"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="60"/>
+      <c r="K21" s="61"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="62" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="62">
         <v>74</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="65" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="48">
         <v>25</v>
       </c>
-      <c r="K22" s="62">
+      <c r="K22" s="65">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="F23" s="76"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="65"/>
       <c r="L23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="F24" s="72" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="F24" s="70" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="70">
         <v>75</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="61" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="51">
         <v>50</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="61">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="F25" s="72"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="60"/>
+      <c r="K25" s="61"/>
       <c r="L25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
+      <c r="A26" s="78">
         <v>0</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="78">
         <v>48</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="71">
         <v>76</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="60" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="49">
         <v>75</v>
       </c>
-      <c r="K26" s="71">
+      <c r="K26" s="69">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="F27" s="73"/>
+      <c r="C27" s="78"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="71"/>
+      <c r="K27" s="69"/>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
+      <c r="A28" s="78">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="78">
         <v>49</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="60" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="60">
         <v>77</v>
       </c>
       <c r="I28" s="68" t="s">
@@ -2176,389 +3881,389 @@
       <c r="J28" s="50">
         <v>100</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="73">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="F29" s="63"/>
+      <c r="C29" s="78"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="68"/>
       <c r="J29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="69"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="78">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="78"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
+      <c r="A32" s="78">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="78">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="78"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
+      <c r="A34" s="78">
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="78">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="78"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
+      <c r="A36" s="78">
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="78">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="78"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
+      <c r="A38" s="78">
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="78">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="59"/>
+      <c r="C39" s="78"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="59">
+      <c r="A40" s="78">
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="78">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="78"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
+      <c r="A42" s="78">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="78">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="78"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="59">
+      <c r="A44" s="78">
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="78">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="78"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="78">
         <v>45</v>
       </c>
       <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="78" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="59">
+      <c r="C48" s="78">
         <v>61</v>
       </c>
       <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="59">
+      <c r="C50" s="78">
         <v>81</v>
       </c>
       <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="59">
+      <c r="C52" s="78">
         <v>87</v>
       </c>
       <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="78" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="59">
+      <c r="C54" s="78">
         <v>69</v>
       </c>
       <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="78" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="78">
         <v>82</v>
       </c>
       <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="59"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="78" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="59">
+      <c r="C58" s="78">
         <v>84</v>
       </c>
       <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="78" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="59">
+      <c r="C60" s="78">
         <v>89</v>
       </c>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="78" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="59">
+      <c r="C62" s="78">
         <v>85</v>
       </c>
       <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="59"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="78" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="59">
+      <c r="C64" s="78">
         <v>73</v>
       </c>
       <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="78" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="59">
+      <c r="C66" s="78">
         <v>79</v>
       </c>
       <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="59"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,6 +4315,87 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F1:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A23:C25"/>
     <mergeCell ref="K24:K25"/>
@@ -2626,1385 +4412,8 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F1:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
-  <dimension ref="B4:N58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="J4" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="85">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="65">
-        <v>0</v>
-      </c>
-      <c r="M9" s="65">
-        <v>0</v>
-      </c>
-      <c r="N9" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="84">
-        <v>1</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="66">
-        <v>0</v>
-      </c>
-      <c r="M11" s="66">
-        <v>1</v>
-      </c>
-      <c r="N11" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="85">
-        <v>2</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="64">
-        <v>39</v>
-      </c>
-      <c r="M13" s="64">
-        <v>1</v>
-      </c>
-      <c r="N13" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="84">
-        <v>3</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="61">
-        <v>50</v>
-      </c>
-      <c r="M15" s="61">
-        <v>1</v>
-      </c>
-      <c r="N15" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="85">
-        <v>5</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="79">
-        <v>60</v>
-      </c>
-      <c r="M17" s="79">
-        <v>1</v>
-      </c>
-      <c r="N17" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="84">
-        <v>6</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="67">
-        <v>120</v>
-      </c>
-      <c r="M19" s="67">
-        <v>1</v>
-      </c>
-      <c r="N19" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="85">
-        <v>7</v>
-      </c>
-      <c r="J21" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="77">
-        <v>174</v>
-      </c>
-      <c r="M21" s="77">
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="N21" s="77">
-        <v>0.87839999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="84">
-        <v>8</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="78">
-        <v>180</v>
-      </c>
-      <c r="M23" s="78">
-        <v>1</v>
-      </c>
-      <c r="N23" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="85">
-        <v>10</v>
-      </c>
-      <c r="J25" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="74">
-        <v>240</v>
-      </c>
-      <c r="M25" s="74">
-        <v>1</v>
-      </c>
-      <c r="N25" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="84">
-        <v>11</v>
-      </c>
-      <c r="J27" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="76">
-        <v>277</v>
-      </c>
-      <c r="M27" s="76">
-        <v>1</v>
-      </c>
-      <c r="N27" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="85">
-        <v>12</v>
-      </c>
-      <c r="J29" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="72">
-        <v>300</v>
-      </c>
-      <c r="M29" s="72">
-        <v>1</v>
-      </c>
-      <c r="N29" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="84">
-        <v>13</v>
-      </c>
-      <c r="J31" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="73">
-        <v>348</v>
-      </c>
-      <c r="M31" s="73">
-        <v>0.251</v>
-      </c>
-      <c r="N31" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="85">
-        <v>15</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="84">
-        <v>16</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="85">
-        <v>17</v>
-      </c>
-      <c r="J37" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="84">
-        <v>18</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="90" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J41" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J42" s="60"/>
-      <c r="K42" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J44" s="62"/>
-      <c r="K44" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J45" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="K45" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="L45" s="82">
-        <v>255</v>
-      </c>
-      <c r="M45" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="N45" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J46" s="82"/>
-      <c r="K46" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J47" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" s="81">
-        <v>348</v>
-      </c>
-      <c r="M47" s="81">
-        <v>0.90869999999999995</v>
-      </c>
-      <c r="N47" s="81">
-        <v>0.85880000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J48" s="81"/>
-      <c r="K48" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-    </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J49" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="81">
-        <v>274</v>
-      </c>
-      <c r="M49" s="81">
-        <v>1</v>
-      </c>
-      <c r="N49" s="81">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="81"/>
-      <c r="K50" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-    </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J51" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51" s="48">
-        <v>25</v>
-      </c>
-      <c r="L51" s="62">
-        <v>25</v>
-      </c>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J52" s="62"/>
-      <c r="K52" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-    </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J53" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" s="51">
-        <v>50</v>
-      </c>
-      <c r="L53" s="60">
-        <v>50</v>
-      </c>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-    </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J54" s="60"/>
-      <c r="K54" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-    </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J55" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55" s="49">
-        <v>75</v>
-      </c>
-      <c r="L55" s="71">
-        <v>75</v>
-      </c>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-    </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J56" s="63"/>
-      <c r="K56" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-    </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J57" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="K57" s="50">
-        <v>100</v>
-      </c>
-      <c r="L57" s="69">
-        <v>100</v>
-      </c>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-    </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J58" s="68"/>
-      <c r="K58" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="L35:N36"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="L41:N42"/>
-    <mergeCell ref="L43:N44"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B4:F6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="56">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="56">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="56">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="56">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Reference/Reference_Sheet.xlsx
+++ b/Reference/Reference_Sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\iCloudDrive\Files\Projects\RGB-Bulb-Controller\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\iCloudDrive\Files\Projects\Arduino\RGB-Bulb-Controller\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9225FDE2-F519-431B-A12E-F4069A2AC5E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6DE238-E212-4A56-816F-E21F16AE3526}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" activeTab="1" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
   </bookViews>
   <sheets>
-    <sheet name="Initial-Notes" sheetId="1" r:id="rId1"/>
-    <sheet name="RGB-Bulb" sheetId="2" r:id="rId2"/>
-    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId3"/>
+    <sheet name="RGB-Bulb" sheetId="2" r:id="rId1"/>
+    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId2"/>
+    <sheet name="Initial-Notes" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179016"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="248">
   <si>
     <t>Red</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>Command</t>
-  </si>
-  <si>
-    <t>Custom Mode</t>
   </si>
   <si>
     <r>
@@ -792,6 +789,512 @@
   </si>
   <si>
     <t>N/A (-25)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Living Room</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>0-3, 8</t>
+  </si>
+  <si>
+    <r>
+      <t>0000.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>Master Suite</t>
+  </si>
+  <si>
+    <r>
+      <t>0000.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>All Lights</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Entertainment Center</t>
+  </si>
+  <si>
+    <r>
+      <t>0000.0000.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom Lighting Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>Picture Adjust +</t>
+  </si>
+  <si>
+    <t>Color Adjust +</t>
+  </si>
+  <si>
+    <t>Brightness Adjust +</t>
+  </si>
+  <si>
+    <t>Cable Mode?</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>Picture Adjust -</t>
+  </si>
+  <si>
+    <t>D90</t>
+  </si>
+  <si>
+    <t>Color Adjust -</t>
+  </si>
+  <si>
+    <t>Sound mode (analog only)</t>
+  </si>
+  <si>
+    <t>E90</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>Brightness Adjust -</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Video 1</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Hue -- R</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>0F0</t>
+  </si>
+  <si>
+    <t>Feature not available</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Component 2</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Video 3</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>Video 2</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>HDMI 1</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Component 1</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>Hue -- G</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Sharpness +</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>Sharpness -</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Side by side mode</t>
+  </si>
+  <si>
+    <t>DB0</t>
+  </si>
+  <si>
+    <t>3B0</t>
+  </si>
+  <si>
+    <t>Freeze Mode</t>
+  </si>
+  <si>
+    <t>Cycle preset picture modes</t>
+  </si>
+  <si>
+    <t>5D0</t>
+  </si>
+  <si>
+    <t>Display info</t>
+  </si>
+  <si>
+    <t>Cycle sleep timer time</t>
+  </si>
+  <si>
+    <t>6D0</t>
+  </si>
+  <si>
+    <t>Power saving mode</t>
+  </si>
+  <si>
+    <t>7D0</t>
+  </si>
+  <si>
+    <t>DD0</t>
+  </si>
+  <si>
+    <t>CF0</t>
+  </si>
+  <si>
+    <t>FF0</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1130,66 +1633,76 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1198,13 +1711,28 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1213,26 +1741,14 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,6 +2077,1998 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
+  <dimension ref="B4:AI74"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="J4" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="75">
+        <v>0</v>
+      </c>
+      <c r="J9" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="90">
+        <v>0</v>
+      </c>
+      <c r="M9" s="90">
+        <v>0</v>
+      </c>
+      <c r="N9" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="83">
+        <v>0</v>
+      </c>
+      <c r="M11" s="83">
+        <v>1</v>
+      </c>
+      <c r="N11" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="73"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="75">
+        <v>2</v>
+      </c>
+      <c r="J13" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="84">
+        <v>39</v>
+      </c>
+      <c r="M13" s="84">
+        <v>1</v>
+      </c>
+      <c r="N13" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="73">
+        <v>3</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="85">
+        <v>50</v>
+      </c>
+      <c r="M15" s="85">
+        <v>1</v>
+      </c>
+      <c r="N15" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="73"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="75">
+        <v>5</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="86">
+        <v>60</v>
+      </c>
+      <c r="M17" s="86">
+        <v>1</v>
+      </c>
+      <c r="N17" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="73">
+        <v>6</v>
+      </c>
+      <c r="J19" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="80">
+        <v>120</v>
+      </c>
+      <c r="M19" s="80">
+        <v>1</v>
+      </c>
+      <c r="N19" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="73"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="75">
+        <v>7</v>
+      </c>
+      <c r="J21" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="81">
+        <v>174</v>
+      </c>
+      <c r="M21" s="81">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="N21" s="81">
+        <v>0.87839999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="73">
+        <v>8</v>
+      </c>
+      <c r="J23" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="82">
+        <v>180</v>
+      </c>
+      <c r="M23" s="82">
+        <v>1</v>
+      </c>
+      <c r="N23" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="73"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="75">
+        <v>10</v>
+      </c>
+      <c r="J25" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="87">
+        <v>240</v>
+      </c>
+      <c r="M25" s="87">
+        <v>1</v>
+      </c>
+      <c r="N25" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="73">
+        <v>11</v>
+      </c>
+      <c r="J27" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="88">
+        <v>277</v>
+      </c>
+      <c r="M27" s="88">
+        <v>1</v>
+      </c>
+      <c r="N27" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="73"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="75">
+        <v>12</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="78">
+        <v>300</v>
+      </c>
+      <c r="M29" s="78">
+        <v>1</v>
+      </c>
+      <c r="N29" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="73">
+        <v>13</v>
+      </c>
+      <c r="J31" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="89">
+        <v>348</v>
+      </c>
+      <c r="M31" s="89">
+        <v>0.251</v>
+      </c>
+      <c r="N31" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="73"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="75">
+        <v>15</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B35" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="73">
+        <v>16</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="73"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B37" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="75">
+        <v>17</v>
+      </c>
+      <c r="J37" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B39" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="73">
+        <v>18</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="73"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B41" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B43" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="73"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B45" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="91">
+        <v>255</v>
+      </c>
+      <c r="M45" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B47" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="79">
+        <v>348</v>
+      </c>
+      <c r="M47" s="79">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="N47" s="79">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="73"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="79">
+        <v>274</v>
+      </c>
+      <c r="M49" s="79">
+        <v>1</v>
+      </c>
+      <c r="N49" s="79">
+        <v>0.50980000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+    </row>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="48">
+        <v>25</v>
+      </c>
+      <c r="L51" s="65">
+        <v>25</v>
+      </c>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+    </row>
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="73"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="51">
+        <v>50</v>
+      </c>
+      <c r="L53" s="62">
+        <v>50</v>
+      </c>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="75"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+    </row>
+    <row r="55" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="49">
+        <v>75</v>
+      </c>
+      <c r="L55" s="66">
+        <v>75</v>
+      </c>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+    </row>
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="63"/>
+      <c r="K56" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+    </row>
+    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="50">
+        <v>100</v>
+      </c>
+      <c r="L57" s="67">
+        <v>100</v>
+      </c>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+    </row>
+    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="64"/>
+      <c r="K58" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+    </row>
+    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="159">
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B4:F6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="L43:N44"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
+  <dimension ref="A1:C70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="60">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="60">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="60">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="60">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1FF50-266D-4B4B-8FDC-D8F17AE2F4A9}">
   <dimension ref="A1:L100"/>
   <sheetViews>
@@ -1571,41 +4079,41 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1617,22 +4125,22 @@
       <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="90">
         <v>65</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="64" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="64">
         <v>78</v>
       </c>
     </row>
@@ -1646,16 +4154,16 @@
       <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="68"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1667,13 +4175,13 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="83" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="83">
         <v>66</v>
       </c>
       <c r="I6" s="63" t="s">
@@ -1696,11 +4204,11 @@
       <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="63"/>
       <c r="J7" s="45" t="s">
         <v>69</v>
@@ -1717,22 +4225,22 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="84" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="84">
         <v>67</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="62" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="62">
         <v>80</v>
       </c>
     </row>
@@ -1746,16 +4254,16 @@
       <c r="C9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1767,22 +4275,22 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="85" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="85">
         <v>68</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="65" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="65">
         <v>81</v>
       </c>
     </row>
@@ -1796,16 +4304,16 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1817,22 +4325,22 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="86" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="86">
         <v>69</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="62" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="62">
         <v>82</v>
       </c>
     </row>
@@ -1846,16 +4354,16 @@
       <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="60"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1867,22 +4375,22 @@
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="80" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="80">
         <v>70</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="65" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="65">
         <v>83</v>
       </c>
     </row>
@@ -1896,16 +4404,16 @@
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="62"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1917,22 +4425,22 @@
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="81" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="81">
         <v>71</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="62" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="62">
         <v>84</v>
       </c>
     </row>
@@ -1946,117 +4454,117 @@
       <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="60"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="82" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="82">
         <v>72</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="65" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="65">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="78"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="62"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="87" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="87">
         <v>73</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="62" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="62">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="74"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="60"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="88" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="88">
         <v>74</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="65" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="48">
         <v>25</v>
       </c>
-      <c r="K22" s="62">
+      <c r="K22" s="65">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="93" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
-      <c r="F23" s="76"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="62"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="65"/>
       <c r="L23" t="s">
         <v>85</v>
       </c>
@@ -2065,22 +4573,22 @@
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="78" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="78">
         <v>75</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="62" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="51">
         <v>50</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="62">
         <v>88</v>
       </c>
     </row>
@@ -2088,37 +4596,37 @@
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
-      <c r="F25" s="72"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="60"/>
+      <c r="K25" s="62"/>
       <c r="L25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
+      <c r="A26" s="95">
         <v>0</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="95">
         <v>48</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="89" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="89">
         <v>76</v>
       </c>
       <c r="I26" s="63" t="s">
@@ -2127,38 +4635,38 @@
       <c r="J26" s="49">
         <v>75</v>
       </c>
-      <c r="K26" s="71">
+      <c r="K26" s="66">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="F27" s="73"/>
+      <c r="C27" s="95"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="73"/>
+      <c r="H27" s="89"/>
       <c r="I27" s="63"/>
       <c r="J27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="71"/>
+      <c r="K27" s="66"/>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
+      <c r="A28" s="95">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="95">
         <v>49</v>
       </c>
       <c r="F28" s="63" t="s">
@@ -2170,395 +4678,395 @@
       <c r="H28" s="63">
         <v>77</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="64" t="s">
         <v>70</v>
       </c>
       <c r="J28" s="50">
         <v>100</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="67">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="95"/>
       <c r="F29" s="63"/>
       <c r="G29" s="44" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="63"/>
-      <c r="I29" s="68"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="69"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="95">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="95">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="95"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
+      <c r="A32" s="95">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="95">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="95"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
+      <c r="A34" s="95">
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="95">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="95"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
+      <c r="A36" s="95">
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="95">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="95"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
+      <c r="A38" s="95">
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="95">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="59"/>
+      <c r="C39" s="95"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="59">
+      <c r="A40" s="95">
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="95">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
+      <c r="A42" s="95">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="95">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="95"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="59">
+      <c r="A44" s="95">
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="95">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="95"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="95" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="95">
         <v>45</v>
       </c>
       <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="95" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="59">
+      <c r="C48" s="95">
         <v>61</v>
       </c>
       <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="95" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="59">
+      <c r="C50" s="95">
         <v>81</v>
       </c>
       <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="95" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="59">
+      <c r="C52" s="95">
         <v>87</v>
       </c>
       <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="95" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="59">
+      <c r="C54" s="95">
         <v>69</v>
       </c>
       <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="95" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="95">
         <v>82</v>
       </c>
       <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="59"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="95" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="59">
+      <c r="C58" s="95">
         <v>84</v>
       </c>
       <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="95" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="59">
+      <c r="C60" s="95">
         <v>89</v>
       </c>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="95" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="59">
+      <c r="C62" s="95">
         <v>85</v>
       </c>
       <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="59"/>
+      <c r="C63" s="95"/>
       <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="95" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="59">
+      <c r="C64" s="95">
         <v>73</v>
       </c>
       <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="95"/>
       <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="95" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="59">
+      <c r="C66" s="95">
         <v>79</v>
       </c>
       <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="59"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,6 +5118,87 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="F1:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A23:C25"/>
     <mergeCell ref="K24:K25"/>
@@ -2626,1385 +5215,8 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F1:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
-  <dimension ref="B4:N58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="J4" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="85">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="65">
-        <v>0</v>
-      </c>
-      <c r="M9" s="65">
-        <v>0</v>
-      </c>
-      <c r="N9" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="84">
-        <v>1</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="66">
-        <v>0</v>
-      </c>
-      <c r="M11" s="66">
-        <v>1</v>
-      </c>
-      <c r="N11" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="85">
-        <v>2</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="64">
-        <v>39</v>
-      </c>
-      <c r="M13" s="64">
-        <v>1</v>
-      </c>
-      <c r="N13" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="84">
-        <v>3</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="61">
-        <v>50</v>
-      </c>
-      <c r="M15" s="61">
-        <v>1</v>
-      </c>
-      <c r="N15" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="85">
-        <v>5</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="79">
-        <v>60</v>
-      </c>
-      <c r="M17" s="79">
-        <v>1</v>
-      </c>
-      <c r="N17" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="84">
-        <v>6</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="67">
-        <v>120</v>
-      </c>
-      <c r="M19" s="67">
-        <v>1</v>
-      </c>
-      <c r="N19" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="85">
-        <v>7</v>
-      </c>
-      <c r="J21" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="77">
-        <v>174</v>
-      </c>
-      <c r="M21" s="77">
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="N21" s="77">
-        <v>0.87839999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="84">
-        <v>8</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="78">
-        <v>180</v>
-      </c>
-      <c r="M23" s="78">
-        <v>1</v>
-      </c>
-      <c r="N23" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="85">
-        <v>10</v>
-      </c>
-      <c r="J25" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="74">
-        <v>240</v>
-      </c>
-      <c r="M25" s="74">
-        <v>1</v>
-      </c>
-      <c r="N25" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="84">
-        <v>11</v>
-      </c>
-      <c r="J27" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="76">
-        <v>277</v>
-      </c>
-      <c r="M27" s="76">
-        <v>1</v>
-      </c>
-      <c r="N27" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="85">
-        <v>12</v>
-      </c>
-      <c r="J29" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="72">
-        <v>300</v>
-      </c>
-      <c r="M29" s="72">
-        <v>1</v>
-      </c>
-      <c r="N29" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="84">
-        <v>13</v>
-      </c>
-      <c r="J31" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="73">
-        <v>348</v>
-      </c>
-      <c r="M31" s="73">
-        <v>0.251</v>
-      </c>
-      <c r="N31" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="85">
-        <v>15</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="84">
-        <v>16</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="85">
-        <v>17</v>
-      </c>
-      <c r="J37" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="84">
-        <v>18</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="90" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J41" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J42" s="60"/>
-      <c r="K42" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J44" s="62"/>
-      <c r="K44" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J45" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="K45" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="L45" s="82">
-        <v>255</v>
-      </c>
-      <c r="M45" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="N45" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J46" s="82"/>
-      <c r="K46" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J47" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" s="81">
-        <v>348</v>
-      </c>
-      <c r="M47" s="81">
-        <v>0.90869999999999995</v>
-      </c>
-      <c r="N47" s="81">
-        <v>0.85880000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J48" s="81"/>
-      <c r="K48" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-    </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J49" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="81">
-        <v>274</v>
-      </c>
-      <c r="M49" s="81">
-        <v>1</v>
-      </c>
-      <c r="N49" s="81">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="81"/>
-      <c r="K50" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-    </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J51" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51" s="48">
-        <v>25</v>
-      </c>
-      <c r="L51" s="62">
-        <v>25</v>
-      </c>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J52" s="62"/>
-      <c r="K52" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-    </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J53" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" s="51">
-        <v>50</v>
-      </c>
-      <c r="L53" s="60">
-        <v>50</v>
-      </c>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-    </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J54" s="60"/>
-      <c r="K54" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-    </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J55" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55" s="49">
-        <v>75</v>
-      </c>
-      <c r="L55" s="71">
-        <v>75</v>
-      </c>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-    </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J56" s="63"/>
-      <c r="K56" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-    </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J57" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="K57" s="50">
-        <v>100</v>
-      </c>
-      <c r="L57" s="69">
-        <v>100</v>
-      </c>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-    </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J58" s="68"/>
-      <c r="K58" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="L35:N36"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="L41:N42"/>
-    <mergeCell ref="L43:N44"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B4:F6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="56">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="56">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="56">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="56">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Reference/Reference_Sheet.xlsx
+++ b/Reference/Reference_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Desktop\GitHoc\ZZZZZZZZ\RGB-Bulb-Controller\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\iCloudDrive\Files\Projects\RGB-Bulb-Controller\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C9AEB5F-05D7-4D28-B7C0-D6CE24B046D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9225FDE2-F519-431B-A12E-F4069A2AC5E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" activeTab="1" xr2:uid="{812E94CD-42CA-40FC-AE14-C85137BC2269}"/>
   </bookViews>
   <sheets>
-    <sheet name="RGB-Bulb" sheetId="2" r:id="rId1"/>
-    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId2"/>
-    <sheet name="Initial-Notes" sheetId="1" r:id="rId3"/>
+    <sheet name="Initial-Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="RGB-Bulb" sheetId="2" r:id="rId2"/>
+    <sheet name="TV&amp;Stereo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179016"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
   <si>
     <t>Red</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Command</t>
+  </si>
+  <si>
+    <t>Custom Mode</t>
   </si>
   <si>
     <r>
@@ -789,260 +792,6 @@
   </si>
   <si>
     <t>N/A (-25)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100.0000.0000.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>Living Room</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <r>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.0000.0000.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.0000.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>0-3, 8</t>
-  </si>
-  <si>
-    <r>
-      <t>0000.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00.0000.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>Bedroom</t>
-  </si>
-  <si>
-    <t>Master Suite</t>
-  </si>
-  <si>
-    <r>
-      <t>0000.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.0000.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>All Lights</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.0000.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>Entertainment Center</t>
-  </si>
-  <si>
-    <r>
-      <t>0000.0000.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.0000</t>
-    </r>
-  </si>
-  <si>
-    <t>Custom Lighting Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>5, 6</t>
-  </si>
-  <si>
-    <t>0-8</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>11-12</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1389,34 +1138,40 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1431,49 +1186,22 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1485,11 +1213,26 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,1454 +1561,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
-  <dimension ref="B4:AI74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="J4" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="90" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="91">
-        <v>0</v>
-      </c>
-      <c r="J9" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="75">
-        <v>0</v>
-      </c>
-      <c r="M9" s="75">
-        <v>0</v>
-      </c>
-      <c r="N9" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="91"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="92">
-        <v>1</v>
-      </c>
-      <c r="J11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="76">
-        <v>0</v>
-      </c>
-      <c r="M11" s="76">
-        <v>1</v>
-      </c>
-      <c r="N11" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="92"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="91">
-        <v>2</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="74">
-        <v>39</v>
-      </c>
-      <c r="M13" s="74">
-        <v>1</v>
-      </c>
-      <c r="N13" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="91"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="92">
-        <v>3</v>
-      </c>
-      <c r="J15" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="77">
-        <v>50</v>
-      </c>
-      <c r="M15" s="77">
-        <v>1</v>
-      </c>
-      <c r="N15" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="92"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="91">
-        <v>5</v>
-      </c>
-      <c r="J17" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="66">
-        <v>60</v>
-      </c>
-      <c r="M17" s="66">
-        <v>1</v>
-      </c>
-      <c r="N17" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="91"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="92">
-        <v>6</v>
-      </c>
-      <c r="J19" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="79">
-        <v>120</v>
-      </c>
-      <c r="M19" s="79">
-        <v>1</v>
-      </c>
-      <c r="N19" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="92"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="91">
-        <v>7</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="63">
-        <v>174</v>
-      </c>
-      <c r="M21" s="63">
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="N21" s="63">
-        <v>0.87839999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="91"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="92">
-        <v>8</v>
-      </c>
-      <c r="J23" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="64">
-        <v>180</v>
-      </c>
-      <c r="M23" s="64">
-        <v>1</v>
-      </c>
-      <c r="N23" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="92"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="91">
-        <v>10</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="72">
-        <v>240</v>
-      </c>
-      <c r="M25" s="72">
-        <v>1</v>
-      </c>
-      <c r="N25" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="91"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="92">
-        <v>11</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="62">
-        <v>277</v>
-      </c>
-      <c r="M27" s="62">
-        <v>1</v>
-      </c>
-      <c r="N27" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="92"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="91">
-        <v>12</v>
-      </c>
-      <c r="J29" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="70">
-        <v>300</v>
-      </c>
-      <c r="M29" s="70">
-        <v>1</v>
-      </c>
-      <c r="N29" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="91"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="92">
-        <v>13</v>
-      </c>
-      <c r="J31" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="71">
-        <v>348</v>
-      </c>
-      <c r="M31" s="71">
-        <v>0.251</v>
-      </c>
-      <c r="N31" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="92"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="91">
-        <v>15</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="91"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B35" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="92">
-        <v>16</v>
-      </c>
-      <c r="J35" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="92"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="91">
-        <v>17</v>
-      </c>
-      <c r="J37" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="91"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B39" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="92">
-        <v>18</v>
-      </c>
-      <c r="J39" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="92"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B41" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="91"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B43" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="J43" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="92"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B45" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K45" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="L45" s="89">
-        <v>255</v>
-      </c>
-      <c r="M45" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="N45" s="89">
-        <v>1</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="91"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B47" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="J47" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" s="88">
-        <v>348</v>
-      </c>
-      <c r="M47" s="88">
-        <v>0.90869999999999995</v>
-      </c>
-      <c r="N47" s="88">
-        <v>0.85880000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="92"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="88">
-        <v>274</v>
-      </c>
-      <c r="M49" s="88">
-        <v>1</v>
-      </c>
-      <c r="N49" s="88">
-        <v>0.50980000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="91"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-    </row>
-    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="J51" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51" s="48">
-        <v>25</v>
-      </c>
-      <c r="L51" s="65">
-        <v>25</v>
-      </c>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-    </row>
-    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="92"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="J53" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" s="51">
-        <v>50</v>
-      </c>
-      <c r="L53" s="61">
-        <v>50</v>
-      </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="91"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-    </row>
-    <row r="55" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J55" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55" s="49">
-        <v>75</v>
-      </c>
-      <c r="L55" s="69">
-        <v>75</v>
-      </c>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-    </row>
-    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J56" s="60"/>
-      <c r="K56" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-    </row>
-    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="K57" s="50">
-        <v>100</v>
-      </c>
-      <c r="L57" s="73">
-        <v>100</v>
-      </c>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-    </row>
-    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="68"/>
-      <c r="K58" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-    </row>
-    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="J4:N6"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B4:F6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="L51:N52"/>
-    <mergeCell ref="L55:N56"/>
-    <mergeCell ref="L53:N54"/>
-    <mergeCell ref="L57:N58"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="L35:N36"/>
-    <mergeCell ref="L37:N38"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="L41:N42"/>
-    <mergeCell ref="L43:N44"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="56">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="56">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="56">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="56">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1FF50-266D-4B4B-8FDC-D8F17AE2F4A9}">
   <dimension ref="A1:L100"/>
   <sheetViews>
@@ -3276,41 +1571,41 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="F1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -3322,13 +1617,13 @@
       <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="65">
         <v>65</v>
       </c>
       <c r="I4" s="68" t="s">
@@ -3351,11 +1646,11 @@
       <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="68"/>
       <c r="J5" s="46" t="s">
         <v>69</v>
@@ -3372,22 +1667,22 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="66" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="66">
         <v>66</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="63" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="63">
         <v>79</v>
       </c>
     </row>
@@ -3401,16 +1696,16 @@
       <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="60"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3422,22 +1717,22 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="64" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="64">
         <v>67</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="60">
         <v>80</v>
       </c>
     </row>
@@ -3451,16 +1746,16 @@
       <c r="C9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="61"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3472,22 +1767,22 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="61" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="61">
         <v>68</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="62" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="62">
         <v>81</v>
       </c>
     </row>
@@ -3501,16 +1796,16 @@
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="77"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3522,22 +1817,22 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="79" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="79">
         <v>69</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="60">
         <v>82</v>
       </c>
     </row>
@@ -3551,16 +1846,16 @@
       <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="61"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="61"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -3572,22 +1867,22 @@
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="67" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="67">
         <v>70</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="62" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="62">
         <v>83</v>
       </c>
     </row>
@@ -3601,16 +1896,16 @@
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="65"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -3622,22 +1917,22 @@
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="77" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="77">
         <v>71</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="60" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <v>84</v>
       </c>
     </row>
@@ -3651,228 +1946,228 @@
       <c r="C17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="61"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="78" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="78">
         <v>72</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="62" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="62">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="64"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="65"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="74" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="74">
         <v>73</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="60" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="60">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="72"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="61"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="61"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="76" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="76">
         <v>74</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="62" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="48">
         <v>25</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="62">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="F23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="65"/>
+      <c r="K23" s="62"/>
       <c r="L23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="F24" s="70" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="F24" s="72" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="72">
         <v>75</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="60" t="s">
         <v>66</v>
       </c>
       <c r="J24" s="51">
         <v>50</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24" s="60">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="F25" s="70"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="61"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="61"/>
+      <c r="K25" s="60"/>
       <c r="L25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
+      <c r="A26" s="59">
         <v>0</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="59">
         <v>48</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="73" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="73">
         <v>76</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="63" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="49">
         <v>75</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="71">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="59"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="60"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="69"/>
+      <c r="K27" s="71"/>
       <c r="L27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78">
+      <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="59">
         <v>49</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="63" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="63">
         <v>77</v>
       </c>
       <c r="I28" s="68" t="s">
@@ -3881,389 +2176,389 @@
       <c r="J28" s="50">
         <v>100</v>
       </c>
-      <c r="K28" s="73">
+      <c r="K28" s="69">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="59"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="60"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="68"/>
       <c r="J29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="73"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78">
+      <c r="A30" s="59">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="59">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="78"/>
+      <c r="C31" s="59"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="78">
+      <c r="A32" s="59">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="78">
+      <c r="C32" s="59">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="78"/>
+      <c r="C33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78">
+      <c r="A34" s="59">
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="78">
+      <c r="C34" s="59">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="78"/>
+      <c r="C35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78">
+      <c r="A36" s="59">
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C36" s="59">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="78"/>
+      <c r="C37" s="59"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="78">
+      <c r="A38" s="59">
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C38" s="59">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" s="59"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="59">
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="78">
+      <c r="C40" s="59">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="78"/>
+      <c r="C41" s="59"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="78">
+      <c r="A42" s="59">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="78">
+      <c r="C42" s="59">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="59">
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="78">
+      <c r="C44" s="59">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="78"/>
+      <c r="C45" s="59"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="59">
         <v>45</v>
       </c>
       <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="59" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="78">
+      <c r="C48" s="59">
         <v>61</v>
       </c>
       <c r="D48" s="47"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="78"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="59" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="78">
+      <c r="C50" s="59">
         <v>81</v>
       </c>
       <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="78"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="78" t="s">
+      <c r="A52" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="78">
+      <c r="C52" s="59">
         <v>87</v>
       </c>
       <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="78"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="78">
+      <c r="C54" s="59">
         <v>69</v>
       </c>
       <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="78"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="59" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="78">
+      <c r="C56" s="59">
         <v>82</v>
       </c>
       <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="78"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="78">
+      <c r="C58" s="59">
         <v>84</v>
       </c>
       <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="78">
+      <c r="C60" s="59">
         <v>89</v>
       </c>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="78"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="59" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="78">
+      <c r="C62" s="59">
         <v>85</v>
       </c>
       <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="78">
+      <c r="C64" s="59">
         <v>73</v>
       </c>
       <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="78"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="59" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="78">
+      <c r="C66" s="59">
         <v>79</v>
       </c>
       <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="78"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,6 +2610,87 @@
     <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A23:C25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F1:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
@@ -4331,89 +2707,1304 @@
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F1:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A23:C25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B6D4D-A241-4B0C-A558-52B0E0CFEDFE}">
+  <dimension ref="B4:N58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="J4" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="85">
+        <v>0</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="65">
+        <v>0</v>
+      </c>
+      <c r="M9" s="65">
+        <v>0</v>
+      </c>
+      <c r="N9" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="84">
+        <v>1</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="66">
+        <v>0</v>
+      </c>
+      <c r="M11" s="66">
+        <v>1</v>
+      </c>
+      <c r="N11" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="85">
+        <v>2</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="64">
+        <v>39</v>
+      </c>
+      <c r="M13" s="64">
+        <v>1</v>
+      </c>
+      <c r="N13" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="84">
+        <v>3</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="61">
+        <v>50</v>
+      </c>
+      <c r="M15" s="61">
+        <v>1</v>
+      </c>
+      <c r="N15" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="85">
+        <v>5</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="79">
+        <v>60</v>
+      </c>
+      <c r="M17" s="79">
+        <v>1</v>
+      </c>
+      <c r="N17" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="84">
+        <v>6</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="67">
+        <v>120</v>
+      </c>
+      <c r="M19" s="67">
+        <v>1</v>
+      </c>
+      <c r="N19" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="85">
+        <v>7</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="77">
+        <v>174</v>
+      </c>
+      <c r="M21" s="77">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="N21" s="77">
+        <v>0.87839999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="84">
+        <v>8</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="78">
+        <v>180</v>
+      </c>
+      <c r="M23" s="78">
+        <v>1</v>
+      </c>
+      <c r="N23" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="85">
+        <v>10</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="74">
+        <v>240</v>
+      </c>
+      <c r="M25" s="74">
+        <v>1</v>
+      </c>
+      <c r="N25" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="84">
+        <v>11</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="76">
+        <v>277</v>
+      </c>
+      <c r="M27" s="76">
+        <v>1</v>
+      </c>
+      <c r="N27" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="85">
+        <v>12</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="72">
+        <v>300</v>
+      </c>
+      <c r="M29" s="72">
+        <v>1</v>
+      </c>
+      <c r="N29" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="84">
+        <v>13</v>
+      </c>
+      <c r="J31" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="73">
+        <v>348</v>
+      </c>
+      <c r="M31" s="73">
+        <v>0.251</v>
+      </c>
+      <c r="N31" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="85">
+        <v>15</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="84">
+        <v>16</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="85">
+        <v>17</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="84">
+        <v>18</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J41" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="60"/>
+      <c r="K42" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J44" s="62"/>
+      <c r="K44" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="82">
+        <v>255</v>
+      </c>
+      <c r="M45" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="82"/>
+      <c r="K46" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="81">
+        <v>348</v>
+      </c>
+      <c r="M47" s="81">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="N47" s="81">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="81"/>
+      <c r="K48" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="81">
+        <v>274</v>
+      </c>
+      <c r="M49" s="81">
+        <v>1</v>
+      </c>
+      <c r="N49" s="81">
+        <v>0.50980000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="81"/>
+      <c r="K50" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="48">
+        <v>25</v>
+      </c>
+      <c r="L51" s="62">
+        <v>25</v>
+      </c>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="62"/>
+      <c r="K52" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J53" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="51">
+        <v>50</v>
+      </c>
+      <c r="L53" s="60">
+        <v>50</v>
+      </c>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J54" s="60"/>
+      <c r="K54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J55" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="49">
+        <v>75</v>
+      </c>
+      <c r="L55" s="71">
+        <v>75</v>
+      </c>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J56" s="63"/>
+      <c r="K56" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J57" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="50">
+        <v>100</v>
+      </c>
+      <c r="L57" s="69">
+        <v>100</v>
+      </c>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J58" s="68"/>
+      <c r="K58" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="138">
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="L51:N52"/>
+    <mergeCell ref="L55:N56"/>
+    <mergeCell ref="L53:N54"/>
+    <mergeCell ref="L57:N58"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="L37:N38"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="L41:N42"/>
+    <mergeCell ref="L43:N44"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B4:F6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="J4:N6"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7404B1-2041-41B6-BFF6-FB7626CBA60D}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="56">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="56">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="56">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="56">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>